--- a/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2750</v>
+        <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>56000</v>
+        <v>22.4</v>
       </c>
       <c r="F2" t="n">
-        <v>5500</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
         <v>70</v>
@@ -1645,7 +1645,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>55000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1659,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4103</v>
+        <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>37800</v>
+        <v>15.12</v>
       </c>
       <c r="F3" t="n">
-        <v>8206</v>
+        <v>3.2824</v>
       </c>
       <c r="G3" t="n">
         <v>126</v>
@@ -1674,7 +1674,7 @@
         <v>132.3</v>
       </c>
       <c r="I3" t="n">
-        <v>82060</v>
+        <v>32.824</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4162</v>
+        <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>28500</v>
+        <v>11.4</v>
       </c>
       <c r="F4" t="n">
-        <v>8324</v>
+        <v>3.3296</v>
       </c>
       <c r="G4" t="n">
         <v>57</v>
@@ -1703,7 +1703,7 @@
         <v>51.3</v>
       </c>
       <c r="I4" t="n">
-        <v>83240</v>
+        <v>33.296</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1717,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4247.4</v>
+        <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>30856.8</v>
+        <v>12.34272</v>
       </c>
       <c r="F5" t="n">
-        <v>8494.799999999999</v>
+        <v>3.39792</v>
       </c>
       <c r="G5" t="n">
         <v>46</v>
@@ -1732,7 +1732,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>84948</v>
+        <v>33.9792</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2400</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>75600</v>
+        <v>30.24</v>
       </c>
       <c r="F6" t="n">
-        <v>4800</v>
+        <v>1.92</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48000</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2350</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>86500</v>
+        <v>34.6</v>
       </c>
       <c r="F7" t="n">
-        <v>4700</v>
+        <v>1.88</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47000</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3953</v>
+        <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>12600</v>
+        <v>5.04</v>
       </c>
       <c r="F8" t="n">
-        <v>7906</v>
+        <v>3.1624</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>79060</v>
+        <v>31.624</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3912</v>
+        <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>12360</v>
+        <v>4.944</v>
       </c>
       <c r="F9" t="n">
-        <v>7824</v>
+        <v>3.1296</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>78240</v>
+        <v>31.296</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1862,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1100</v>
+        <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>277200</v>
+        <v>110.88</v>
       </c>
       <c r="F10" t="n">
-        <v>2200</v>
+        <v>0.88</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>600</v>
+        <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>358800</v>
+        <v>143.52</v>
       </c>
       <c r="F11" t="n">
-        <v>1200</v>
+        <v>0.48</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12000</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>400</v>
+        <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>239200</v>
+        <v>95.68000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>800</v>
+        <v>0.32</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8000</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1949,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1100</v>
+        <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>380600</v>
+        <v>152.24</v>
       </c>
       <c r="F13" t="n">
-        <v>2200</v>
+        <v>0.88</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1500</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>687000</v>
+        <v>274.8</v>
       </c>
       <c r="F14" t="n">
-        <v>3000</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2400</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4800</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48000</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2036,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1503</v>
+        <v>0.6012</v>
       </c>
       <c r="E16" t="n">
-        <v>756</v>
+        <v>0.3024</v>
       </c>
       <c r="F16" t="n">
-        <v>3006</v>
+        <v>1.2024</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>30060</v>
+        <v>12.024</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2065,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1502</v>
+        <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>412</v>
+        <v>0.1648</v>
       </c>
       <c r="F17" t="n">
-        <v>3004</v>
+        <v>1.2016</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>30040</v>
+        <v>12.016</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2094,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2350</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4700</v>
+        <v>1.88</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>47000</v>
+        <v>18.8</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1285</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1285</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3028</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3028</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1285</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1285</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1179</v>
+        <v>2947.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4720</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2112</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20682</v>
+        <v>51705</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74754</v>
+        <v>186885</v>
       </c>
     </row>
   </sheetData>
